--- a/src/main/resources/resource/SceneResource.xlsx
+++ b/src/main/resources/resource/SceneResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>sceneId</t>
   </si>
@@ -63,10 +63,7 @@
 1,1,1,1,1,1,1,1,1,1,1,1,1,1,1</t>
   </si>
   <si>
-    <t>n2001,n2002</t>
-  </si>
-  <si>
-    <t>m1001,m2002</t>
+    <t>2001,2002</t>
   </si>
   <si>
     <t>东山口</t>
@@ -109,6 +106,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -118,7 +161,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,49 +197,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,14 +237,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,61 +249,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -262,187 +259,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,11 +453,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,41 +507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -539,17 +522,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,141 +568,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1028,7 +1026,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K4" sqref="K$1:K$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -1097,11 +1095,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:10">
@@ -1109,10 +1107,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -1129,22 +1127,22 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="87" customHeight="1" spans="1:10">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -1161,22 +1159,22 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
-        <v>15</v>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="95" customHeight="1" spans="1:10">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -1193,11 +1191,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J5" t="s">
-        <v>15</v>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/SceneResource.xlsx
+++ b/src/main/resources/resource/SceneResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="21000" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>sceneId</t>
   </si>
@@ -46,13 +46,7 @@
     <t>monsters</t>
   </si>
   <si>
-    <t>s2001</t>
-  </si>
-  <si>
     <t>区庄</t>
-  </si>
-  <si>
-    <t>s2002</t>
   </si>
   <si>
     <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1
@@ -69,19 +63,13 @@
     <t>东山口</t>
   </si>
   <si>
-    <t>s2001,s2003</t>
-  </si>
-  <si>
-    <t>s2003</t>
+    <t>2001,2003</t>
   </si>
   <si>
     <t>东湖</t>
   </si>
   <si>
-    <t>s2002,s2004</t>
-  </si>
-  <si>
-    <t>s2004</t>
+    <t>2002,2004</t>
   </si>
   <si>
     <t>团一大</t>
@@ -92,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -107,46 +95,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,45 +110,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,15 +178,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,17 +232,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -259,31 +247,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,151 +415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +438,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,17 +474,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,31 +524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,142 +556,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1026,7 +1014,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K$1:K$1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -1071,14 +1059,14 @@
       </c>
     </row>
     <row r="2" ht="94" customHeight="1" spans="1:10">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>2001</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
+      <c r="C2" s="1">
+        <v>2002</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -1086,8 +1074,8 @@
       <c r="E2">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1095,22 +1083,22 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:10">
-      <c r="A3" t="s">
-        <v>12</v>
+      <c r="A3">
+        <v>2002</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -1118,8 +1106,8 @@
       <c r="E3">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1127,22 +1115,22 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="87" customHeight="1" spans="1:10">
-      <c r="A4" t="s">
-        <v>17</v>
+      <c r="A4">
+        <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -1150,8 +1138,8 @@
       <c r="E4">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1159,22 +1147,22 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="95" customHeight="1" spans="1:10">
-      <c r="A5" t="s">
-        <v>20</v>
+      <c r="A5">
+        <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
         <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2003</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -1182,8 +1170,8 @@
       <c r="E5">
         <v>6</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1191,11 +1179,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>14</v>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
